--- a/CFFW/aid.xlsx
+++ b/CFFW/aid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/xander3_colostate_edu/Documents/Xander Personal/Code/eclipse-workspace/CFFW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xande\Documents\GitHub\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC1048E5091A61125BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958E9F76-A42E-4767-8719-CB8C7A6C9C8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5B289-88A2-4DF1-A3AB-A4D9741980D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>dt</t>
   </si>
@@ -42,75 +42,6 @@
     <t>first aid</t>
   </si>
   <si>
-    <t>79H</t>
-  </si>
-  <si>
-    <t>75H</t>
-  </si>
-  <si>
-    <t>72H</t>
-  </si>
-  <si>
-    <t>68H</t>
-  </si>
-  <si>
-    <t>65H</t>
-  </si>
-  <si>
-    <t>62H</t>
-  </si>
-  <si>
-    <t>59H</t>
-  </si>
-  <si>
-    <t>56H</t>
-  </si>
-  <si>
-    <t>53H</t>
-  </si>
-  <si>
-    <t>51H</t>
-  </si>
-  <si>
-    <t>46H</t>
-  </si>
-  <si>
-    <t>41H</t>
-  </si>
-  <si>
-    <t>37H</t>
-  </si>
-  <si>
-    <t>34H</t>
-  </si>
-  <si>
-    <t>31H</t>
-  </si>
-  <si>
-    <t>11H</t>
-  </si>
-  <si>
-    <t>4H</t>
-  </si>
-  <si>
-    <t>93M</t>
-  </si>
-  <si>
-    <t>35M</t>
-  </si>
-  <si>
-    <t>13M</t>
-  </si>
-  <si>
-    <t>6M</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
     <t>90p</t>
   </si>
   <si>
@@ -214,6 +145,69 @@
   </si>
   <si>
     <t>8h</t>
+  </si>
+  <si>
+    <t>79h</t>
+  </si>
+  <si>
+    <t>75h</t>
+  </si>
+  <si>
+    <t>72h</t>
+  </si>
+  <si>
+    <t>68h</t>
+  </si>
+  <si>
+    <t>65h</t>
+  </si>
+  <si>
+    <t>62h</t>
+  </si>
+  <si>
+    <t>59h</t>
+  </si>
+  <si>
+    <t>56h</t>
+  </si>
+  <si>
+    <t>53h</t>
+  </si>
+  <si>
+    <t>51h</t>
+  </si>
+  <si>
+    <t>46h</t>
+  </si>
+  <si>
+    <t>41h</t>
+  </si>
+  <si>
+    <t>37h</t>
+  </si>
+  <si>
+    <t>34h</t>
+  </si>
+  <si>
+    <t>31h</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>93m</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>5m</t>
   </si>
 </sst>
 </file>
@@ -536,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,13 +566,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>96</v>
@@ -589,13 +583,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>92</v>
@@ -606,13 +600,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>89</v>
@@ -623,13 +617,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>86</v>
@@ -640,13 +634,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>82</v>
@@ -657,13 +651,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>79</v>
@@ -674,13 +668,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
         <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>76</v>
@@ -691,13 +685,13 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>73</v>
@@ -708,13 +702,13 @@
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>70</v>
@@ -725,13 +719,13 @@
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>68</v>
@@ -742,13 +736,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>63</v>
@@ -759,13 +753,13 @@
         <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>58</v>
@@ -776,13 +770,13 @@
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1">
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <v>54</v>
@@ -793,13 +787,13 @@
         <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -810,13 +804,13 @@
         <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
         <v>46</v>
@@ -827,13 +821,13 @@
         <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1">
         <v>21</v>
@@ -844,13 +838,13 @@
         <v>300</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -861,13 +855,13 @@
         <v>400</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
@@ -878,13 +872,13 @@
         <v>500</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -895,13 +889,13 @@
         <v>600</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -912,13 +906,13 @@
         <v>700</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -929,13 +923,13 @@
         <v>800</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -946,13 +940,13 @@
         <v>900</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>-1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -963,13 +957,13 @@
         <v>1000</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>-1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>-1</v>
@@ -980,13 +974,13 @@
         <v>2000</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>-1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
         <v>-1</v>
@@ -997,13 +991,13 @@
         <v>3000</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>-1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1">
         <v>-1</v>
@@ -1014,13 +1008,13 @@
         <v>4000</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>-1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1">
         <v>-1</v>
@@ -1031,13 +1025,13 @@
         <v>5000</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>-1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
         <v>-1</v>
@@ -1048,13 +1042,13 @@
         <v>6000</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
         <v>-1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1">
         <v>-1</v>
@@ -1065,13 +1059,13 @@
         <v>7000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
         <v>-1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1">
         <v>-1</v>
@@ -1082,13 +1076,13 @@
         <v>8000</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>-1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1">
         <v>-1</v>
@@ -1099,13 +1093,13 @@
         <v>9000</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1">
         <v>-1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>-1</v>
@@ -1116,13 +1110,13 @@
         <v>12000</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
         <v>-1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
         <v>-1</v>
@@ -1133,13 +1127,13 @@
         <v>16000</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
         <v>-1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1">
         <v>-1</v>
@@ -1150,13 +1144,13 @@
         <v>20000</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1">
         <v>-1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1">
         <v>-1</v>
@@ -1167,13 +1161,13 @@
         <v>40000</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1">
         <v>-1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1">
         <v>-1</v>
@@ -1184,13 +1178,13 @@
         <v>60000</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>-1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1">
         <v>-1</v>
@@ -1201,13 +1195,13 @@
         <v>80000</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>-1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1">
         <v>-1</v>
@@ -1218,13 +1212,13 @@
         <v>100000</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1">
         <v>-1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1">
         <v>-1</v>

--- a/CFFW/aid.xlsx
+++ b/CFFW/aid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xande\Documents\GitHub\cffw-java\CFFW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5B289-88A2-4DF1-A3AB-A4D9741980D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13962636-56AD-4CD0-9B91-E7CE500D7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
   <si>
     <t>dt</t>
   </si>
@@ -208,6 +208,96 @@
   </si>
   <si>
     <t>5m</t>
+  </si>
+  <si>
+    <t>Aid Station</t>
+  </si>
+  <si>
+    <t>Field Hospital</t>
+  </si>
+  <si>
+    <t>Trauma Center Lvl</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t>63m</t>
+  </si>
+  <si>
+    <t>36m</t>
+  </si>
+  <si>
+    <t>29m</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>60p</t>
+  </si>
+  <si>
+    <t>5d</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>95m</t>
+  </si>
+  <si>
+    <t>75m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>17m</t>
+  </si>
+  <si>
+    <t>18d</t>
+  </si>
+  <si>
+    <t>52m</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>68m</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>Healing Time</t>
+  </si>
+  <si>
+    <t>HT</t>
   </si>
 </sst>
 </file>
@@ -528,15 +618,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +636,20 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -560,8 +662,29 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -577,8 +700,29 @@
       <c r="E3" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -594,8 +738,29 @@
       <c r="E4" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>99</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -611,8 +776,29 @@
       <c r="E5" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -628,8 +814,29 @@
       <c r="E6" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -645,8 +852,29 @@
       <c r="E7" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -662,8 +890,29 @@
       <c r="E8" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -679,8 +928,29 @@
       <c r="E9" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -696,8 +966,29 @@
       <c r="E10" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -713,8 +1004,29 @@
       <c r="E11" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -730,8 +1042,29 @@
       <c r="E12" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
@@ -747,8 +1080,29 @@
       <c r="E13" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>94</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>99</v>
+      </c>
+      <c r="L13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>70</v>
       </c>
@@ -764,8 +1118,29 @@
       <c r="E14" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>87</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80</v>
       </c>
@@ -781,8 +1156,29 @@
       <c r="E15" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90</v>
       </c>
@@ -798,8 +1194,29 @@
       <c r="E16" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>99</v>
+      </c>
+      <c r="L16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -815,8 +1232,29 @@
       <c r="E17" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>99</v>
+      </c>
+      <c r="L17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200</v>
       </c>
@@ -832,8 +1270,29 @@
       <c r="E18" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>67</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>99</v>
+      </c>
+      <c r="L18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>300</v>
       </c>
@@ -849,8 +1308,29 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>99</v>
+      </c>
+      <c r="L19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>400</v>
       </c>
@@ -866,8 +1346,29 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>99</v>
+      </c>
+      <c r="L20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>500</v>
       </c>
@@ -883,8 +1384,29 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>37</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>99</v>
+      </c>
+      <c r="L21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>600</v>
       </c>
@@ -900,8 +1422,29 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>99</v>
+      </c>
+      <c r="L22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>700</v>
       </c>
@@ -917,8 +1460,29 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23">
+        <v>99</v>
+      </c>
+      <c r="L23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>800</v>
       </c>
@@ -934,8 +1498,29 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>97</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>900</v>
       </c>
@@ -951,8 +1536,29 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>96</v>
+      </c>
+      <c r="L25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1000</v>
       </c>
@@ -968,8 +1574,29 @@
       <c r="E26" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>96</v>
+      </c>
+      <c r="L26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -985,8 +1612,29 @@
       <c r="E27" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <v>92</v>
+      </c>
+      <c r="L27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3000</v>
       </c>
@@ -1002,8 +1650,29 @@
       <c r="E28" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28">
+        <v>89</v>
+      </c>
+      <c r="L28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4000</v>
       </c>
@@ -1019,8 +1688,29 @@
       <c r="E29" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>85</v>
+      </c>
+      <c r="L29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5000</v>
       </c>
@@ -1036,8 +1726,29 @@
       <c r="E30" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>82</v>
+      </c>
+      <c r="L30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6000</v>
       </c>
@@ -1053,8 +1764,29 @@
       <c r="E31" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31">
+        <v>79</v>
+      </c>
+      <c r="L31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7000</v>
       </c>
@@ -1070,8 +1802,29 @@
       <c r="E32" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32">
+        <v>76</v>
+      </c>
+      <c r="L32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8000</v>
       </c>
@@ -1087,8 +1840,29 @@
       <c r="E33" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33">
+        <v>73</v>
+      </c>
+      <c r="L33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9000</v>
       </c>
@@ -1104,8 +1878,29 @@
       <c r="E34" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>70</v>
+      </c>
+      <c r="L34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12000</v>
       </c>
@@ -1121,8 +1916,29 @@
       <c r="E35" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>62</v>
+      </c>
+      <c r="L35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16000</v>
       </c>
@@ -1138,8 +1954,29 @@
       <c r="E36" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>53</v>
+      </c>
+      <c r="L36">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20000</v>
       </c>
@@ -1155,8 +1992,29 @@
       <c r="E37" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>45</v>
+      </c>
+      <c r="L37">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>40000</v>
       </c>
@@ -1172,8 +2030,29 @@
       <c r="E38" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60000</v>
       </c>
@@ -1189,8 +2068,29 @@
       <c r="E39" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>80000</v>
       </c>
@@ -1206,8 +2106,29 @@
       <c r="E40" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>100000</v>
       </c>
@@ -1222,6 +2143,32 @@
       </c>
       <c r="E41" s="1">
         <v>-1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1048576" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
